--- a/Microsoft 365/Semi-Annual Enterprise Channel/outlookmmsreadcontrols.xlsx
+++ b/Microsoft 365/Semi-Annual Enterprise Channel/outlookmmsreadcontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27315"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcoard\OneDrive - Microsoft\Documents\RibbonX Upload\SAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\SACJuly2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBBE205-6DCB-458D-B7F0-84B748506481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5232DEED-9A0E-4C1A-B471-0EB3C3A0E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="23325"/>
+    <workbookView xWindow="0" yWindow="5415" windowWidth="51600" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="outlookmmsreadcontrols" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="233">
   <si>
     <t>Policy ID</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>OutlookFeedbackUIF</t>
+  </si>
+  <si>
+    <t>OfficeFeedbackBackstage</t>
   </si>
   <si>
     <t>ContextMenuAttachments</t>
@@ -726,21 +729,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -748,7 +751,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -756,7 +759,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -764,35 +767,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -800,7 +803,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -808,14 +811,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -823,14 +826,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -838,7 +841,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -846,14 +849,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -907,19 +910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -930,19 +933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -953,19 +956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999816888943144"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5999938962981048"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.3999755851924192"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -976,19 +979,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -999,19 +1002,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1022,19 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1070,7 +1073,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,8 +1263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I248" totalsRowShown="0">
-  <autoFilter ref="A1:I248"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I249" totalsRowShown="0">
+  <autoFilter ref="A1:I249"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Control Name"/>
     <tableColumn id="2" name="Control Type"/>
@@ -1288,39 +1291,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1372,7 +1375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1483,13 +1486,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1498,6 +1494,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1562,11 +1565,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1574,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -1582,15 +1605,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1619,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5343,7 +5366,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="B204" t="s">
         <v>9</v>
@@ -5352,44 +5375,38 @@
         <v>143</v>
       </c>
       <c r="H204">
-        <v>11323</v>
+        <v>27302</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="B205" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>196</v>
-      </c>
-      <c r="D205" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="H205">
-        <v>21472</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="C206" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D206" t="s">
-        <v>196</v>
-      </c>
-      <c r="E206" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H206">
-        <v>26907</v>
+        <v>21472</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -5400,16 +5417,16 @@
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D207" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E207" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H207">
-        <v>21473</v>
+        <v>26907</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -5420,16 +5437,16 @@
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D208" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E208" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H208">
-        <v>21474</v>
+        <v>21473</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -5440,16 +5457,16 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D209" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E209" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H209">
-        <v>21475</v>
+        <v>21474</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -5460,16 +5477,16 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D210" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E210" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H210">
-        <v>20528</v>
+        <v>21475</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -5480,16 +5497,16 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D211" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E211" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H211">
-        <v>26353</v>
+        <v>20528</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -5500,16 +5517,16 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D212" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E212" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H212">
-        <v>26350</v>
+        <v>26353</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -5517,19 +5534,19 @@
         <v>204</v>
       </c>
       <c r="B213" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D213" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E213" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H213">
-        <v>26351</v>
+        <v>26350</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -5537,22 +5554,19 @@
         <v>205</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C214" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D214" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E214" t="s">
-        <v>194</v>
-      </c>
-      <c r="F214" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H214">
-        <v>26358</v>
+        <v>26351</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -5563,19 +5577,19 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D215" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E215" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F215" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H215">
-        <v>26359</v>
+        <v>26358</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -5586,19 +5600,19 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D216" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E216" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F216" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H216">
-        <v>27616</v>
+        <v>26359</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -5609,19 +5623,19 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D217" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E217" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F217" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H217">
-        <v>27617</v>
+        <v>27616</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -5632,19 +5646,19 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D218" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E218" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F218" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H218">
-        <v>26356</v>
+        <v>27617</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -5655,19 +5669,19 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D219" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E219" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F219" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H219">
-        <v>26357</v>
+        <v>26356</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -5675,19 +5689,22 @@
         <v>211</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D220" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E220" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="F220" t="s">
+        <v>205</v>
       </c>
       <c r="H220">
-        <v>26349</v>
+        <v>26357</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -5695,22 +5712,19 @@
         <v>212</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C221" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D221" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E221" t="s">
-        <v>194</v>
-      </c>
-      <c r="F221" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H221">
-        <v>26774</v>
+        <v>26349</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -5721,19 +5735,19 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D222" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E222" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F222" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H222">
-        <v>26355</v>
+        <v>26774</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -5744,19 +5758,19 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D223" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E223" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F223" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H223">
-        <v>26993</v>
+        <v>26355</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -5767,19 +5781,19 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D224" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E224" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F224" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H224">
-        <v>26362</v>
+        <v>26993</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -5787,19 +5801,22 @@
         <v>216</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D225" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E225" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="F225" t="s">
+        <v>212</v>
       </c>
       <c r="H225">
-        <v>27015</v>
+        <v>26362</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -5807,22 +5824,19 @@
         <v>217</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C226" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D226" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E226" t="s">
-        <v>194</v>
-      </c>
-      <c r="F226" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="H226">
-        <v>27040</v>
+        <v>27015</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -5833,19 +5847,19 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D227" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E227" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F227" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H227">
-        <v>27038</v>
+        <v>27040</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -5856,19 +5870,19 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D228" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E228" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F228" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H228">
-        <v>27039</v>
+        <v>27038</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -5879,19 +5893,19 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D229" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E229" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F229" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H229">
-        <v>27043</v>
+        <v>27039</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -5902,16 +5916,19 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D230" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E230" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="F230" t="s">
+        <v>217</v>
       </c>
       <c r="H230">
-        <v>27017</v>
+        <v>27043</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -5922,16 +5939,16 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D231" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E231" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H231">
-        <v>20524</v>
+        <v>27017</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -5942,79 +5959,76 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D232" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E232" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H232">
-        <v>20526</v>
+        <v>20524</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B233" t="s">
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D233" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E233" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H233">
-        <v>3167</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="B234" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D234" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E234" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H234">
-        <v>26354</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C235" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D235" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E235" t="s">
-        <v>194</v>
-      </c>
-      <c r="F235" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="H235">
-        <v>26774</v>
+        <v>26354</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -6025,19 +6039,19 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D236" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E236" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F236" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H236">
-        <v>26355</v>
+        <v>26774</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -6048,19 +6062,19 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D237" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E237" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F237" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H237">
-        <v>26993</v>
+        <v>26355</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -6071,62 +6085,62 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D238" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E238" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F238" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H238">
-        <v>26362</v>
+        <v>26993</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>216</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
+        <v>197</v>
+      </c>
+      <c r="D239" t="s">
+        <v>197</v>
+      </c>
+      <c r="E239" t="s">
+        <v>195</v>
+      </c>
+      <c r="F239" t="s">
         <v>225</v>
       </c>
-      <c r="B239" t="s">
-        <v>33</v>
-      </c>
-      <c r="C239" t="s">
-        <v>196</v>
-      </c>
-      <c r="D239" t="s">
-        <v>196</v>
-      </c>
-      <c r="E239" t="s">
-        <v>194</v>
-      </c>
       <c r="H239">
-        <v>27016</v>
+        <v>26362</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C240" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D240" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E240" t="s">
-        <v>194</v>
-      </c>
-      <c r="F240" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="H240">
-        <v>27040</v>
+        <v>27016</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -6137,19 +6151,19 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D241" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E241" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F241" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H241">
-        <v>27038</v>
+        <v>27040</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -6160,19 +6174,19 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D242" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E242" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F242" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H242">
-        <v>27039</v>
+        <v>27038</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -6183,39 +6197,42 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D243" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E243" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F243" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H243">
-        <v>27043</v>
+        <v>27039</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>221</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D244" t="s">
+        <v>197</v>
+      </c>
+      <c r="E244" t="s">
+        <v>195</v>
+      </c>
+      <c r="F244" t="s">
         <v>226</v>
       </c>
-      <c r="B244" t="s">
-        <v>9</v>
-      </c>
-      <c r="C244" t="s">
-        <v>196</v>
-      </c>
-      <c r="D244" t="s">
-        <v>196</v>
-      </c>
-      <c r="E244" t="s">
-        <v>194</v>
-      </c>
       <c r="H244">
-        <v>20523</v>
+        <v>27043</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -6226,16 +6243,16 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D245" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E245" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H245">
-        <v>27029</v>
+        <v>20523</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -6246,16 +6263,16 @@
         <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D246" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E246" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H246">
-        <v>20527</v>
+        <v>27029</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -6266,16 +6283,16 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D247" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E247" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H247">
-        <v>26720</v>
+        <v>20527</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -6286,15 +6303,35 @@
         <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D248" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E248" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H248">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>231</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" t="s">
+        <v>197</v>
+      </c>
+      <c r="D249" t="s">
+        <v>197</v>
+      </c>
+      <c r="E249" t="s">
+        <v>195</v>
+      </c>
+      <c r="H249">
         <v>20525</v>
       </c>
     </row>
